--- a/account/student.xlsx
+++ b/account/student.xlsx
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>testsheet</t>
+          <t>tew</t>
         </is>
       </c>
     </row>
